--- a/dataset/lg/kumaarii.xlsx
+++ b/dataset/lg/kumaarii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీ భూ నీళా హైమవ
 తీ భారతు లతుల శుభవతిగ నెన్నుచు స
@@ -477,32 +474,29 @@
 లో భావించెదరు ధర్మలోల కుమారీ!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('భూ', 'U'), ('నీ', 'U'), ('ళా', 'U'), ('హై', 'U'), ('మ', '|'), ('వ', '|'), ('తీ', 'U'), ('భా', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('తు', '|'), ('ల', '|'), ('శు', '|'), ('భ', '|'), ('వ', '|'), ('తి', '|'), ('గ', '|'), ('నె', 'U'), ('న్ను', '|'), ('చు', '|'), ('స', 'U'), ('త్సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('నీ', 'U'), ('కొ', '|'), ('స', '|'), ('గ', '|'), ('గ', '|'), ('లో', 'U'), ('భా', 'U'), ('విం', 'U'), ('చె', '|'), ('ద', '|'), ('రు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('లో', 'U'), ('ల', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>చెప్పెడి బుద్ధులలోపలఁ
 దప్పకు మొకటైన సర్వ ధర్మములందున్‌
@@ -510,32 +504,29 @@
 దప్పింతయు లేక మెలగఁ దగును కుమారీ!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('చె', 'U'), ('ప్పె', '|'), ('డి', '|'), ('బు', 'U'), ('ద్ధు', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ద', 'U'), ('ప్ప', '|'), ('కు', '|'), ('మొ', '|'), ('క', '|'), ('టై', 'U'), ('న', '|'), ('స', 'U'), ('ర్వ', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('లం', 'U'), ('దున్', 'U'), ('మె', 'U'), ('ప్పొం', 'U'), ('ది', '|'), ('యి', '|'), ('హ', '|'), ('ప', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('ద', 'U'), ('ప్పిం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('క', '|'), ('మె', '|'), ('ల', '|'), ('గ', '|'), ('ద', '|'), ('గు', '|'), ('ను', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>ఆటలఁ బాటలలో నే
 మాటయు రాకుండఁ దండ్రి మందిరమందున్‌
@@ -543,32 +534,29 @@
 వాట మెఱిఁగి బాల! తిరుగ వలయుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ట', '|'), ('ల', '|'), ('బా', 'U'), ('ట', '|'), ('ల', '|'), ('లో', 'U'), ('నే', 'U'), ('మా', 'U'), ('ట', '|'), ('యు', '|'), ('రా', 'U'), ('కుం', 'U'), ('డ', '|'), ('దం', 'U'), ('డ్రి', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('మం', 'U'), ('దున్', 'U'), ('బా', 'U'), ('టి', 'U'), ('ల్లు', '|'), ('గా', 'U'), ('పు', '|'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('వా', 'U'), ('ట', '|'), ('మె', '|'), ('ఱి', '|'), ('గి', '|'), ('బా', 'U'), ('ల', '|'), ('తి', '|'), ('రు', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>మగనికి నత్తకు మామకుఁ
 దగ సేవ యొనర్చుఁచోటఁ దత్పరిచర్యన్‌
@@ -576,32 +564,29 @@
 మగువలకుం బాడి తెలిసి మసలు కుమారీ!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('గ', '|'), ('ని', '|'), ('కి', '|'), ('న', 'U'), ('త్త', '|'), ('కు', '|'), ('మా', 'U'), ('మ', '|'), ('కు', '|'), ('ద', '|'), ('గ', '|'), ('సే', 'U'), ('వ', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('చో', 'U'), ('ట', '|'), ('ద', 'U'), ('త్ప', '|'), ('రి', '|'), ('చ', '|'), ('ర్యన్', 'U'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('ను', '|'), ('తి', '|'), ('బొం', 'U'), ('దు', '|'), ('చుం', 'U'), ('డు', '|'), ('ట', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('ల', '|'), ('కుం', 'U'), ('బా', 'U'), ('డి', '|'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('మ', '|'), ('స', '|'), ('లు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>పెనిమిటి వలదని చెప్పిన
 పని యెన్నఁడుఁ జేయరాదు బావల కెదుటన్‌
@@ -609,32 +594,29 @@
 మనమున నిడుకొనక యెపుడు మసలు కుమారీ!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('ని', '|'), ('మి', '|'), ('టి', '|'), ('వ', '|'), ('ల', '|'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('ప', '|'), ('ని', '|'), ('యె', 'U'), ('న్న', '|'), ('డు', '|'), ('జే', 'U'), ('య', '|'), ('రా', 'U'), ('దు', '|'), ('బా', 'U'), ('వ', '|'), ('ల', '|'), ('కె', '|'), ('దు', '|'), ('టన్', 'U'), ('క', '|'), ('న', '|'), ('బ', '|'), ('డ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('కో', 'U'), ('ప', '|'), ('ము', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('ని', '|'), ('డు', '|'), ('కొ', '|'), ('న', '|'), ('క', '|'), ('యె', '|'), ('పు', '|'), ('డు', '|'), ('మ', '|'), ('స', '|'), ('లు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>పరపురుషు లన్న దమ్ములు,
 వరుఁడే దైవంబు, తోడి పడుచులు వదినల్‌
@@ -642,32 +624,29 @@
 ధరఁ దల్లియుఁ దండ్రి యనియుఁ దలఁపు కుమారీ!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('ల', 'U'), ('న్న', '|'), ('ద', 'U'), ('మ్ము', '|'), ('లు', '|'), ('వ', '|'), ('రు', '|'), ('డే', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('తో', 'U'), ('డి', '|'), ('ప', '|'), ('డు', '|'), ('చు', '|'), ('లు', '|'), ('వ', '|'), ('ది', '|'), ('నల్', 'U'), ('మ', '|'), ('ఱ', '|'), ('దం', 'U'), ('డ్రు', '|'), ('న', 'U'), ('త్త', '|'), ('మా', 'U'), ('మ', '|'), ('లు', '|'), ('ధ', '|'), ('ర', '|'), ('ద', 'U'), ('ల్లి', '|'), ('యు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('య', '|'), ('ని', '|'), ('యు', '|'), ('ద', '|'), ('ల', '|'), ('పు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>పదములపైఁ జెయివేయక
 మదవతి పతిచెంత నిద్ర మరగినఁ జేతుల్‌
@@ -675,32 +654,29 @@
 గదఁ గొని శిక్షించు యముఁడు కాంక్షఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('జె', '|'), ('యి', '|'), ('వే', 'U'), ('య', '|'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('వ', '|'), ('తి', '|'), ('ప', '|'), ('తి', '|'), ('చెం', 'U'), ('త', '|'), ('ని', '|'), ('ద్ర', '|'), ('మ', '|'), ('ర', '|'), ('గి', '|'), ('న', '|'), ('జే', 'U'), ('తుల్', 'U'), ('గ', '|'), ('ద', '|'), ('లం', 'U'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('క', 'U'), ('ట్టు', '|'), ('చు', '|'), ('గ', '|'), ('ద', '|'), ('గొ', '|'), ('ని', '|'), ('శి', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('య', '|'), ('ము', '|'), ('డు', '|'), ('కాం', 'U'), ('క్ష', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>తెచ్చినఁ దేకుండిన నీ
 కిచ్చిన నీకున్న మగని నెగ్గాడకుమీ
@@ -708,32 +684,29 @@
 రచ్చల కామాట లెక్కు రవ్వ కుమారీ!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('తె', 'U'), ('చ్చి', '|'), ('న', '|'), ('దే', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('నీ', 'U'), ('కి', 'U'), ('చ్చి', '|'), ('న', '|'), ('నీ', 'U'), ('కు', 'U'), ('న్న', '|'), ('మ', '|'), ('గ', '|'), ('ని', '|'), ('నె', 'U'), ('గ్గా', 'U'), ('డ', '|'), ('కు', '|'), ('మీ', 'U'), ('యొ', 'U'), ('చ్చె', '|'), ('ము', '|'), ('నీ', 'U'), ('పై', 'U'), ('దే', 'U'), ('లు', '|'), ('ను', '|'), ('ర', 'U'), ('చ్చ', '|'), ('ల', '|'), ('కా', 'U'), ('మా', 'U'), ('ట', '|'), ('లె', 'U'), ('క్కు', '|'), ('ర', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>మఱదండ్రు వదినె లత్తలు
 మఱఁదులు బావల కొమాళ్లు మఱి పెద్దలు రా
@@ -741,32 +714,29 @@
 లరుఁగులు దిగుచుండవలయు నమ్మ కుమారీ!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ఱ', '|'), ('దం', 'U'), ('డ్రు', '|'), ('వ', '|'), ('ది', '|'), ('నె', '|'), ('ల', 'U'), ('త్త', '|'), ('లు', '|'), ('మ', '|'), ('ఱ', '|'), ('దు', '|'), ('లు', '|'), ('బా', 'U'), ('వ', '|'), ('ల', '|'), ('కొ', '|'), ('మా', 'U'), ('ళ్లు', '|'), ('మ', '|'), ('ఱి', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లు', '|'), ('రా', 'U'), ('ను', '|'), ('ర', '|'), ('వ', '|'), ('డి', '|'), ('బీ', 'U'), ('ట', '|'), ('లు', '|'), ('మం', 'U'), ('చ', '|'), ('ము', '|'), ('ల', '|'), ('రు', '|'), ('గు', '|'), ('లు', '|'), ('ది', '|'), ('గు', '|'), ('చుం', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>నోరెత్తి మాటలాడకు
 మాఱాడకు కోపపడిన మర్యాదలలో
@@ -774,32 +744,29 @@
 మీఱకుమీ యత్తపనుల మెలఁగు కుమారీ!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('నో', 'U'), ('రె', 'U'), ('త్తి', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డ', '|'), ('కు', '|'), ('మా', 'U'), ('ఱా', 'U'), ('డ', '|'), ('కు', '|'), ('కో', 'U'), ('ప', '|'), ('ప', '|'), ('డి', '|'), ('న', '|'), ('మ', 'U'), ('ర్యా', 'U'), ('ద', '|'), ('ల', '|'), ('లో', 'U'), ('గో', 'U'), ('రం', 'U'), ('త', '|'), ('త', 'U'), ('ప్పి', '|'), ('తి', '|'), ('రు', '|'), ('గ', '|'), ('క', '|'), ('మీ', 'U'), ('ఱ', '|'), ('కు', '|'), ('మీ', 'U'), ('య', 'U'), ('త్త', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>పతి పరకాంతలతో సం
 గతిఁ జేసిన నాదుపుణ్యగతి యిట్లనుచున్‌
@@ -807,32 +774,29 @@
 బతిమాలఁగవలయుఁ గలహ పడక కుమారీ!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('ప', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('తో', 'U'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('నా', 'U'), ('దు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('గ', '|'), ('తి', '|'), ('యి', 'U'), ('ట్ల', '|'), ('ను', '|'), ('చున్', 'U'), ('మ', '|'), ('తి', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('లే', 'U'), ('దా', 'U'), ('బ', '|'), ('తి', '|'), ('మా', 'U'), ('ల', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('గ', '|'), ('ల', '|'), ('హ', '|'), ('ప', '|'), ('డ', '|'), ('క', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>పతి పాపపుఁ బనిఁజెప్పినఁ
 బతిమాలి మరల్పవలయుఁ బతి వినకున్నన్‌
@@ -840,32 +804,29 @@
 మతిలోపల సంశయంబు మాని కుమారీ!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('పా', 'U'), ('ప', '|'), ('పు', '|'), ('బ', '|'), ('ని', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('బ', '|'), ('తి', '|'), ('మా', 'U'), ('లి', '|'), ('మ', '|'), ('ర', 'U'), ('ల్ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('బ', '|'), ('తి', '|'), ('వి', '|'), ('న', '|'), ('కు', '|'), ('న్నన్', 'U'), ('హి', '|'), ('త', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('నా', 'U'), ('చ', '|'), ('రిం', 'U'), ('పు', '|'), ('ము', '|'), ('మ', '|'), ('తి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('సం', 'U'), ('శ', '|'), ('యం', 'U'), ('బు', '|'), ('మా', 'U'), ('ని', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>తిట్టిన దిట్టక, కొట్టిన
 గొట్టక, కోపించెనేనిఁ గోపింపక, నీ
@@ -873,32 +834,29 @@
 పెట్టినయింటికిని వన్నె పెట్టు కుమారీ!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('తి', 'U'), ('ట్టి', '|'), ('న', '|'), ('ది', 'U'), ('ట్ట', '|'), ('క', '|'), ('కొ', 'U'), ('ట్టి', '|'), ('న', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('క', '|'), ('కో', 'U'), ('పిం', 'U'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('గో', 'U'), ('పిం', 'U'), ('ప', '|'), ('క', '|'), ('నీ', 'U'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('యిం', 'U'), ('టి', '|'), ('కి', '|'), ('బా', 'U'), ('ద', '|'), ('ము', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('యిం', 'U'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('వ', 'U'), ('న్నె', '|'), ('పె', 'U'), ('ట్టు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>దబ్బరలాడకు కదిమిన
 బొబ్బలు పెట్టకుము మంచి బుద్ధిగలిగి యెం
@@ -906,32 +864,29 @@
 గొబ్బునఁ జిత్తమున వానిఁ గూర్పు కుమారీ!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('ద', 'U'), ('బ్బ', '|'), ('ర', '|'), ('లా', 'U'), ('డ', '|'), ('కు', '|'), ('క', '|'), ('ది', '|'), ('మి', '|'), ('న', '|'), ('బొ', 'U'), ('బ్బ', '|'), ('లు', '|'), ('పె', 'U'), ('ట్ట', '|'), ('కు', '|'), ('ము', '|'), ('మం', 'U'), ('చి', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('యెం', 'U'), ('దె', 'U'), ('బ్బె', '|'), ('ఱి', '|'), ('క', '|'), ('ము', '|'), ('బూ', 'U'), ('న', '|'), ('క', '|'), ('క', '|'), ('డు', '|'), ('గొ', 'U'), ('బ్బు', '|'), ('న', '|'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('గూ', 'U'), ('ర్పు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>పతి భుజియించిన పాత్రను
 మెతు కొక్కటియైన భార్య మెసఁగుటకై తా
@@ -939,32 +894,29 @@
 సతియే? కడుఁ బాపజాతి జగతి కుమారీ!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('భు', '|'), ('జి', '|'), ('యిం', 'U'), ('చి', '|'), ('న', '|'), ('పా', 'U'), ('త్ర', '|'), ('ను', '|'), ('మె', '|'), ('తు', '|'), ('కొ', 'U'), ('క్క', '|'), ('టి', '|'), ('యై', 'U'), ('న', '|'), ('భా', 'U'), ('ర్య', '|'), ('మె', '|'), ('స', '|'), ('గు', '|'), ('ట', '|'), ('కై', 'U'), ('తా', 'U'), ('హి', '|'), ('త', '|'), ('మూ', 'U'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('న', '|'), ('ది', '|'), ('యొ', '|'), ('క', '|'), ('స', '|'), ('తి', '|'), ('యే', 'U'), ('క', '|'), ('డు', '|'), ('బా', 'U'), ('ప', '|'), ('జా', 'U'), ('తి', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>జపములు, గంగాయాత్రలు,
 దపములు, నోములును, దాన ధర్మంబులు, పు
@@ -972,32 +924,29 @@
 నుపమింపను సాటి రాక యుండు కుమారీ!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('గం', 'U'), ('గా', 'U'), ('యా', 'U'), ('త్ర', '|'), ('లు', '|'), ('ద', '|'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('నో', 'U'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('దా', 'U'), ('న', '|'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('లు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', '|'), ('ప', '|'), ('తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('కి', '|'), ('ను', '|'), ('ప', '|'), ('మిం', 'U'), ('ప', '|'), ('ను', '|'), ('సా', 'U'), ('టి', '|'), ('రా', 'U'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>ఇరుగు పొరుగిండ్ల కైనను
 వరుఁడో, కాక అత్తగారో, వదినెయొ, మామో
@@ -1005,32 +954,29 @@
 దరుణి స్వతంత్రించి పోవఁ దగదు కుమారీ!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('రు', '|'), ('గు', '|'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('కై', 'U'), ('న', '|'), ('ను', '|'), ('వ', '|'), ('రు', '|'), ('డో', 'U'), ('కా', 'U'), ('క', '|'), ('అ', 'U'), ('త్త', '|'), ('గా', 'U'), ('రో', 'U'), ('వ', '|'), ('ది', '|'), ('నె', '|'), ('యొ', '|'), ('మా', 'U'), ('మో', 'U'), ('మ', '|'), ('ఱ', '|'), ('ది', '|'), ('యో', 'U'), ('సె', '|'), ('ల', '|'), ('వి', '|'), ('డ', '|'), ('కుం', 'U'), ('డ', '|'), ('గ', '|'), ('ద', '|'), ('రు', '|'), ('ణి', 'U'), ('స్వ', '|'), ('తం', 'U'), ('త్రిం', 'U'), ('చి', '|'), ('పో', 'U'), ('వ', '|'), ('ద', '|'), ('గ', '|'), ('దు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>కూతురు చెడుగై యుండిన
 మాతది తప్పన్నమాట మది నెఱుగుదుగా
@@ -1038,32 +984,29 @@
 ఖ్యాతులు రానీయఁ గూడదమ్మ! కుమారీ!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('కూ', 'U'), ('తు', '|'), ('రు', '|'), ('చె', '|'), ('డు', '|'), ('గై', 'U'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('మా', 'U'), ('త', '|'), ('ది', '|'), ('త', 'U'), ('ప్ప', 'U'), ('న్న', '|'), ('మా', 'U'), ('ట', '|'), ('మ', '|'), ('ది', '|'), ('నె', '|'), ('ఱు', '|'), ('గు', '|'), ('దు', '|'), ('గా', 'U'), ('నీ', 'U'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('కు', '|'), ('న', '|'), ('ప', 'U'), ('ఖ్యా', 'U'), ('తు', '|'), ('లు', '|'), ('రా', 'U'), ('నీ', 'U'), ('య', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>అమ్మకు రెం డబ్బకు రెం
 డిమ్మహిఁ దిట్టించు కూఁతురెందుకు ధర నా
@@ -1071,32 +1014,29 @@
 నిమ్మళమని యండ్రు జనులు నిజము కుమారీ!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('మ్మ', '|'), ('కు', '|'), ('రెం', 'U'), ('డ', 'U'), ('బ్బ', '|'), ('కు', '|'), ('రెం', 'U'), ('డి', 'U'), ('మ్మ', '|'), ('హి', '|'), ('ది', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('కూ', 'U'), ('తు', '|'), ('రెం', 'U'), ('దు', '|'), ('కు', '|'), ('ధ', '|'), ('ర', '|'), ('నా', 'U'), ('ద్రి', 'U'), ('మ్మ', '|'), ('రి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('క', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('ని', 'U'), ('మ్మ', '|'), ('ళ', '|'), ('మ', '|'), ('ని', '|'), ('యం', 'U'), ('డ్రు', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>తన బావల పిల్లల యెడఁ
 దన మఱఁదుల పిల్లలందుఁ దనపిల్లల కం
@@ -1104,32 +1044,29 @@
 వనితల కటులైన వన్నె వచ్చుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('బా', 'U'), ('వ', '|'), ('ల', '|'), ('పి', 'U'), ('ల్ల', '|'), ('ల', '|'), ('యె', '|'), ('డ', '|'), ('ద', '|'), ('న', '|'), ('మ', '|'), ('ఱ', '|'), ('దు', '|'), ('ల', '|'), ('పి', 'U'), ('ల్ల', '|'), ('లం', 'U'), ('దు', '|'), ('ద', '|'), ('న', '|'), ('పి', 'U'), ('ల్ల', '|'), ('ల', '|'), ('కం', 'U'), ('టె', '|'), ('ను', '|'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('యుం', 'U'), ('డ', '|'), ('వ', '|'), ('లెన్', 'U'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('క', '|'), ('టు', '|'), ('లై', 'U'), ('న', '|'), ('వ', 'U'), ('న్నె', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>ధనహీనుఁడైనఁ గడు దు
 ర్జనుఁడైనఁ గురూపియైన జారుండైనన్‌
@@ -1137,32 +1074,29 @@
 దనపతియే తనకు దైవతంబు కుమారీ!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('న', '|'), ('హీ', 'U'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('గ', '|'), ('డు', '|'), ('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('గు', '|'), ('రూ', 'U'), ('పి', '|'), ('యై', 'U'), ('న', '|'), ('జా', 'U'), ('రుం', 'U'), ('డై', 'U'), ('నన్', 'U'), ('వి', '|'), ('ను', '|'), ('పా', 'U'), ('పి', '|'), ('యై', 'U'), ('న', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ద', '|'), ('న', '|'), ('ప', '|'), ('తి', '|'), ('యే', 'U'), ('త', '|'), ('న', '|'), ('కు', '|'), ('దై', 'U'), ('వ', '|'), ('తం', 'U'), ('బు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>ధనవంతు డైనఁ యప్పుడుఁ
 పెనిమిటి చిత్తం బెఱింగి పెండ్లాము మెలం
@@ -1170,32 +1104,29 @@
 వనితకు లోకమున వన్నె వచ్చుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('న', '|'), ('వం', 'U'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('య', 'U'), ('ప్పు', '|'), ('డు', '|'), ('పె', '|'), ('ని', '|'), ('మి', '|'), ('టి', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('పెం', 'U'), ('డ్లా', 'U'), ('ము', '|'), ('మె', '|'), ('లం', 'U'), ('గు', '|'), ('ను', '|'), ('లే', 'U'), ('మి', '|'), ('మె', '|'), ('ల', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('కు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('న', '|'), ('వ', 'U'), ('న్నె', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>తలిదండ్రు లన్నదమ్ములు
 తులఁ దూగఁగ నిమ్ము పసిడిఁ తోనైనను వా
@@ -1203,32 +1134,29 @@
 వెలఁదికి మర్యాదగాదు వినవె కుమారీ!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', 'U'), ('న్న', '|'), ('ద', 'U'), ('మ్ము', '|'), ('లు', '|'), ('తు', '|'), ('ల', '|'), ('దూ', 'U'), ('గ', '|'), ('గ', '|'), ('ని', 'U'), ('మ్ము', '|'), ('ప', '|'), ('సి', '|'), ('డి', '|'), ('తో', 'U'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('యిం', 'U'), ('ట', '|'), ('స', '|'), ('త', '|'), ('త', '|'), ('ముం', 'U'), ('డు', '|'), ('ట', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('కి', '|'), ('మ', 'U'), ('ర్యా', 'U'), ('ద', '|'), ('గా', 'U'), ('దు', '|'), ('వి', '|'), ('న', '|'), ('వె', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>కడుపారఁ గూడుఁ గూరలు
 దొడవులు వస్త్రములు మిగుల దొరకవనుచుం దా
@@ -1236,32 +1164,29 @@
 నెడఁ బాసి చరింపఁ గూడదెపుడు కుమారీ!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డు', '|'), ('పా', 'U'), ('ర', '|'), ('గూ', 'U'), ('డు', '|'), ('గూ', 'U'), ('ర', '|'), ('లు', '|'), ('దొ', '|'), ('డ', '|'), ('వు', '|'), ('లు', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('వ', '|'), ('ను', '|'), ('చుం', 'U'), ('దా', 'U'), ('వ', '|'), ('డి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('బె', '|'), ('ని', '|'), ('మి', '|'), ('టి', '|'), ('తో', 'U'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('గూ', 'U'), ('డ', '|'), ('దె', '|'), ('పు', '|'), ('డు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>పిల్లలఁ గనుగొనఁ దలఁచిన
 యిల్లాలు గతాగతంబు లెఱుఁగక ఱాఁగై
@@ -1269,32 +1194,29 @@
 నుల్లసములఁ బడును, గీడు నొందుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('పి', 'U'), ('ల్ల', '|'), ('ల', '|'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('న', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('యి', 'U'), ('ల్లా', 'U'), ('లు', '|'), ('గ', '|'), ('తా', 'U'), ('గ', '|'), ('తం', 'U'), ('బు', '|'), ('లె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('ఱా', 'U'), ('గై', 'U'), ('య', 'U'), ('ల్ల', '|'), ('రి', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('జె', '|'), ('డు', '|'), ('దా', 'U'), ('ను', 'U'), ('ల్ల', '|'), ('స', '|'), ('ము', '|'), ('ల', '|'), ('బ', '|'), ('డు', '|'), ('ను', '|'), ('గీ', 'U'), ('డు', '|'), ('నొం', 'U'), ('దు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>పతి కత్తకు మామకు స
 మ్మతిగాని ప్రయోజనంబు మానఁగవలయున్‌
@@ -1302,32 +1224,29 @@
 బ్రతుకున కొకవంక లేక పరఁగు గుమారీ!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('క', 'U'), ('త్త', '|'), ('కు', '|'), ('మా', 'U'), ('మ', '|'), ('కు', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('గా', 'U'), ('ని', 'U'), ('ప్ర', '|'), ('యో', 'U'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('మా', 'U'), ('న', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యున్', 'U'), ('హి', '|'), ('త', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ను', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('న', '|'), ('కొ', '|'), ('క', '|'), ('వం', 'U'), ('క', '|'), ('లే', 'U'), ('క', '|'), ('ప', '|'), ('ర', '|'), ('గు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>పోకిళ్ళు పోక పొందిక
 నాకులలోఁ బిందెరీతి నడఁకువగా నెం
@@ -1335,32 +1254,29 @@
 లోకములోపలను దా వెలుంగుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('పో', 'U'), ('కి', 'U'), ('ళ్ళు', '|'), ('పో', 'U'), ('క', '|'), ('పొం', 'U'), ('ది', '|'), ('క', '|'), ('నా', 'U'), ('కు', '|'), ('ల', '|'), ('లో', 'U'), ('బిం', 'U'), ('దె', '|'), ('రీ', 'U'), ('తి', '|'), ('న', '|'), ('డ', '|'), ('కు', '|'), ('వ', '|'), ('గా', 'U'), ('నెం', 'U'), ('తో', 'U'), ('క', '|'), ('లి', '|'), ('సి', '|'), ('మె', '|'), ('ల', '|'), ('సి', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ను', '|'), ('దా', 'U'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>అత్తపయిన్‌ మఱఁదలిపయి
 నెత్తిన కోపమున బిడ్డ నేడ్పించుటకై
@@ -1368,32 +1284,29 @@
 జిత్తములో దీనిఁ జింత సేయు కుమారీ!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('త్త', '|'), ('ప', '|'), ('యిన్', 'U'), ('మ', '|'), ('ఱ', '|'), ('ద', '|'), ('లి', '|'), ('ప', '|'), ('యి', '|'), ('నె', 'U'), ('త్తి', '|'), ('న', '|'), ('కో', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('బి', 'U'), ('డ్డ', '|'), ('నే', 'U'), ('డ్పిం', 'U'), ('చు', '|'), ('ట', '|'), ('కై', 'U'), ('మొ', 'U'), ('త్తి', '|'), ('న', '|'), ('ద', '|'), ('న', '|'), ('కే', 'U'), ('కీ', 'U'), ('డ', '|'), ('గు', '|'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('లో', 'U'), ('దీ', 'U'), ('ని', '|'), ('జిం', 'U'), ('త', '|'), ('సే', 'U'), ('యు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>మృతియైనను బ్రతుకైనం
 బతితోడనె సతికిఁ జెల్లుఁ బతిబాసిన యా
@@ -1401,32 +1314,29 @@
 న్మృతి గాక వధూటి కెన్న నిదియుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('మృ', '|'), ('తి', '|'), ('యై', 'U'), ('న', '|'), ('ను', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కై', 'U'), ('నం', 'U'), ('బ', '|'), ('తి', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('జె', 'U'), ('ల్లు', '|'), ('బ', '|'), ('తి', '|'), ('బా', 'U'), ('సి', '|'), ('న', '|'), ('యా', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కొ', '|'), ('క', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కా', 'U'), ('జీ', 'U'), ('వ', 'U'), ('న్మృ', '|'), ('తి', '|'), ('గా', 'U'), ('క', '|'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('కె', 'U'), ('న్న', '|'), ('ని', '|'), ('ది', '|'), ('యు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>మగని ప్రియ మబ్బె ననుచును
 దెగ నీలిగి యింటివారి దిగఁద్రొక్కుచు దుం
@@ -1434,32 +1344,29 @@
 మగువలలో నిదియె తప్పు మాట కుమారీ!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('గ', '|'), ('ని', 'U'), ('ప్రి', '|'), ('య', '|'), ('మ', 'U'), ('బ్బె', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('ను', '|'), ('దె', '|'), ('గ', '|'), ('నీ', 'U'), ('లి', '|'), ('గి', '|'), ('యిం', 'U'), ('టి', '|'), ('వా', 'U'), ('రి', '|'), ('ది', '|'), ('గ', '|'), ('ద్రొ', 'U'), ('క్కు', '|'), ('చు', '|'), ('దుం', 'U'), ('డ', '|'), ('గు', '|'), ('రా', 'U'), ('లై', 'U'), ('తి', '|'), ('రి', '|'), ('గి', '|'), ('న', '|'), ('స', '|'), ('రి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('ల', '|'), ('లో', 'U'), ('ని', '|'), ('ది', '|'), ('యె', '|'), ('త', 'U'), ('ప్పు', '|'), ('మా', 'U'), ('ట', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>జీవములు భర్తపద రా
 జీవములని చిత్తమందు జింతించిన ల
@@ -1467,32 +1374,29 @@
 సేవ లతాంగులకు నెమ్మిఁ జేయుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('జీ', 'U'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('భ', 'U'), ('ర్త', '|'), ('ప', '|'), ('ద', '|'), ('రా', 'U'), ('జీ', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('ని', '|'), ('చి', 'U'), ('త్త', '|'), ('మం', 'U'), ('దు', '|'), ('జిం', 'U'), ('తిం', 'U'), ('చి', '|'), ('న', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('సే', 'U'), ('వ', '|'), ('ల', '|'), ('తాం', 'U'), ('గు', '|'), ('ల', '|'), ('కు', '|'), ('నె', 'U'), ('మ్మి', '|'), ('జే', 'U'), ('యు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>కడు బుద్ధిగలిగి మెలఁగినఁ
 బడఁతుక పుట్టింటివారు పదివేలవరా
@@ -1500,32 +1404,29 @@
 మ్మిడి లేకుండినను నేర్చి మెలఁగు కుమారీ!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('మె', '|'), ('ల', '|'), ('గి', '|'), ('న', '|'), ('బ', '|'), ('డ', '|'), ('తు', '|'), ('క', '|'), ('పు', 'U'), ('ట్టిం', 'U'), ('టి', '|'), ('వా', 'U'), ('రు', '|'), ('ప', '|'), ('ది', '|'), ('వే', 'U'), ('ల', '|'), ('వ', '|'), ('రా', 'U'), ('లి', '|'), ('డు', '|'), ('కం', 'U'), ('టె', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('య', '|'), ('గు', '|'), ('ద', 'U'), ('మ్మి', '|'), ('డి', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('నే', 'U'), ('ర్చి', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>కడుఁ బెద్దమూటఁ దెచ్చినఁ
 జెడుగై వర్తించు నేనిఁ జిరతర చింతం
@@ -1533,32 +1434,29 @@
 బడుచులు సోదరులు నిందఁ బడుదురుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డు', '|'), ('బె', 'U'), ('ద్ద', '|'), ('మూ', 'U'), ('ట', '|'), ('దె', 'U'), ('చ్చి', '|'), ('న', '|'), ('జె', '|'), ('డు', '|'), ('గై', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('నే', 'U'), ('ని', '|'), ('జి', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('చిం', 'U'), ('తం', 'U'), ('బ', '|'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('తో', 'U'), ('బ', '|'), ('డు', '|'), ('చు', '|'), ('లు', '|'), ('సో', 'U'), ('ద', '|'), ('రు', '|'), ('లు', '|'), ('నిం', 'U'), ('ద', '|'), ('బ', '|'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>పుట్టింటివారి నీచతఁ
 బెట్టకు మత్తింటివారు పెట్టెడి బాధల్‌
@@ -1566,32 +1464,29 @@
 రట్టడి చెలియందు రదియె రవ్వ కుమారీ!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('పు', 'U'), ('ట్టిం', 'U'), ('టి', '|'), ('వా', 'U'), ('రి', '|'), ('నీ', 'U'), ('చ', '|'), ('త', '|'), ('బె', 'U'), ('ట్ట', '|'), ('కు', '|'), ('మ', 'U'), ('త్తిం', 'U'), ('టి', '|'), ('వా', 'U'), ('రు', '|'), ('పె', 'U'), ('ట్టె', '|'), ('డి', '|'), ('బా', 'U'), ('ధల్', 'U'), ('పు', 'U'), ('ట్టిం', 'U'), ('ట', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('నీ', 'U'), ('కు', '|'), ('ర', 'U'), ('ట్ట', '|'), ('డి', '|'), ('చె', '|'), ('లి', '|'), ('యం', 'U'), ('దు', '|'), ('ర', '|'), ('ది', '|'), ('యె', '|'), ('ర', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>తనకెంత మేలు చేసిన
 మనమున కింపైన పనులుఁ మసలిన దాసీ
@@ -1599,32 +1494,29 @@
 జనవిచ్చి మెలంగరాదు జగతిఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('కెం', 'U'), ('త', '|'), ('మే', 'U'), ('లు', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('కిం', 'U'), ('పై', 'U'), ('న', '|'), ('ప', '|'), ('ను', '|'), ('లు', '|'), ('మ', '|'), ('స', '|'), ('లి', '|'), ('న', '|'), ('దా', 'U'), ('సీ', 'U'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('కె', 'U'), ('న్న', '|'), ('టి', '|'), ('కై', 'U'), ('నం', 'U'), ('జ', '|'), ('న', '|'), ('వి', 'U'), ('చ్చి', '|'), ('మె', '|'), ('లం', 'U'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>కులదేవతలకుఁ బెట్టిన
 పొలుపునఁ దనయింటయాఁడు బొట్టెల కెల్లం
@@ -1632,32 +1524,29 @@
 గలఁత పొడము దాన మేలు గాదు కుమారీ!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('ల', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('ల', '|'), ('కు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('పొ', '|'), ('లు', '|'), ('పు', '|'), ('న', '|'), ('ద', '|'), ('న', '|'), ('యిం', 'U'), ('ట', '|'), ('యా', 'U'), ('డు', '|'), ('బొ', 'U'), ('ట్టె', '|'), ('ల', '|'), ('కె', 'U'), ('ల్లం', 'U'), ('గ', '|'), ('ల', '|'), ('మా', 'U'), ('త్ర', '|'), ('మొ', '|'), ('స', '|'), ('గ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('త', '|'), ('పొ', '|'), ('డ', '|'), ('ము', '|'), ('దా', 'U'), ('న', '|'), ('మే', 'U'), ('లు', '|'), ('గా', 'U'), ('దు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>బద్ధకము సంజనిద్దుర
 వద్దుసుమీ దద్దిరంబు వచ్చును దానన్‌
@@ -1665,32 +1554,29 @@
 మొద్దందురు తోడివారు ముద్దు కుమారీ!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('బ', 'U'), ('ద్ధ', '|'), ('క', '|'), ('ము', '|'), ('సం', 'U'), ('జ', '|'), ('ని', 'U'), ('ద్దు', '|'), ('ర', '|'), ('వ', 'U'), ('ద్దు', '|'), ('సు', '|'), ('మీ', 'U'), ('ద', 'U'), ('ద్ది', '|'), ('రం', 'U'), ('బు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('దా', 'U'), ('నన్', 'U'), ('గ', 'U'), ('ద్దిం', 'U'), ('తు', '|'), ('రిం', 'U'), ('టి', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('మొ', 'U'), ('ద్దం', 'U'), ('దు', '|'), ('రు', '|'), ('తో', 'U'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>ఇంటఁ గల గుట్టు నీ పొరు
 గింట రవంతైనఁ దెలుప నేఁగకు దానం
@@ -1698,32 +1584,29 @@
 గెంటించెద రిల్లు వెడలఁ గినుకఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('ఇం', 'U'), ('ట', '|'), ('గ', '|'), ('ల', '|'), ('గు', 'U'), ('ట్టు', '|'), ('నీ', 'U'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('ట', '|'), ('ర', '|'), ('వం', 'U'), ('తై', 'U'), ('న', '|'), ('దె', '|'), ('లు', '|'), ('ప', '|'), ('నే', 'U'), ('గ', '|'), ('కు', '|'), ('దా', 'U'), ('నం', 'U'), ('గం', 'U'), ('ట', '|'), ('న', '|'), ('ప', '|'), ('డి', '|'), ('నీ', 'U'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('గెం', 'U'), ('టిం', 'U'), ('చె', '|'), ('ద', '|'), ('రి', 'U'), ('ల్లు', '|'), ('వె', '|'), ('డ', '|'), ('ల', '|'), ('గి', '|'), ('ను', '|'), ('క', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>వేకువజామున మేల్కని
 పైకి వెడలి వచ్చి ప్రాచి పనిఁ దీర్పవలెన్‌
@@ -1731,32 +1614,29 @@
 లోకులు నవ్వుదురు సభల లోనఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('కు', '|'), ('వ', '|'), ('జా', 'U'), ('ము', '|'), ('న', '|'), ('మే', 'U'), ('ల్క', '|'), ('ని', '|'), ('పై', 'U'), ('కి', '|'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('వ', 'U'), ('చ్చి', 'U'), ('ప్రా', 'U'), ('చి', '|'), ('ప', '|'), ('ని', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('వ', '|'), ('లెన్', 'U'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('దె', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('ఱి', '|'), ('న', '|'), ('లో', 'U'), ('కు', '|'), ('లు', '|'), ('న', 'U'), ('వ్వు', '|'), ('దు', '|'), ('రు', '|'), ('స', '|'), ('భ', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>ఇక్కడి దక్కడఁ నక్కడి
 దిక్కడఁ జెప్పినను వారి కిద్దఱికిఁ బగల్‌
@@ -1764,32 +1644,29 @@
 మ్మక్కా! యిడుముళ్ళమారి యండ్రు కుమారీ!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('ఇ', 'U'), ('క్క', '|'), ('డి', '|'), ('ద', 'U'), ('క్క', '|'), ('డ', '|'), ('న', 'U'), ('క్క', '|'), ('డి', '|'), ('ది', 'U'), ('క్క', '|'), ('డ', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('ను', '|'), ('వా', 'U'), ('రి', '|'), ('కి', 'U'), ('ద్ద', '|'), ('ఱి', '|'), ('కి', '|'), ('బ', '|'), ('గల్', 'U'), ('పొ', 'U'), ('క్కి', '|'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('చే', 'U'), ('డి', '|'), ('య', '|'), ('ల', 'U'), ('మ్మ', 'U'), ('క్కా', 'U'), ('యి', '|'), ('డు', '|'), ('ము', 'U'), ('ళ్ళ', '|'), ('మా', 'U'), ('రి', '|'), ('యం', 'U'), ('డ్రు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>తలవాకిట నెల్లప్పుడు
 నిలువఁగ రా దెప్పు డెంత నిద్దురయైనన్‌
@@ -1797,32 +1674,29 @@
 తల నడుచుచు విప్పికొనుట తగదు కుమారీ!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('వా', 'U'), ('కి', '|'), ('ట', '|'), ('నె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('గ', '|'), ('రా', 'U'), ('దె', 'U'), ('ప్పు', '|'), ('డెం', 'U'), ('త', '|'), ('ని', 'U'), ('ద్దు', '|'), ('ర', '|'), ('యై', 'U'), ('నన్', 'U'), ('మె', '|'), ('ల', '|'), ('కు', '|'), ('వ', '|'), ('వి', '|'), ('డ', '|'), ('రా', 'U'), ('దు', '|'), ('సు', '|'), ('మీ', 'U'), ('త', '|'), ('ల', '|'), ('న', '|'), ('డు', '|'), ('చు', '|'), ('చు', '|'), ('వి', 'U'), ('ప్పి', '|'), ('కొ', '|'), ('ను', '|'), ('ట', '|'), ('త', '|'), ('గ', '|'), ('దు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>వారికి వీరికిఁ గలిగెను
 గోరిన వస్తువులు మాకుఁ గొదవాయె నటం
@@ -1830,32 +1704,29 @@
 నేరముగాఁ దలఁపవలయు నెలఁత కుమారీ!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('రి', '|'), ('కి', '|'), ('వీ', 'U'), ('రి', '|'), ('కి', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('వ', 'U'), ('స్తు', '|'), ('వు', '|'), ('లు', '|'), ('మా', 'U'), ('కు', '|'), ('గొ', '|'), ('ద', '|'), ('వా', 'U'), ('యె', '|'), ('న', '|'), ('టం', 'U'), ('చూ', 'U'), ('ర', '|'), ('క', '|'), ('గు', '|'), ('ట', '|'), ('క', '|'), ('లు', '|'), ('మ్రిం', 'U'), ('గు', '|'), ('ట', '|'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>కొన్నాళ్లు సుఖము కష్టము
 కొన్నాళ్లు భుజింపకున్నఁ గొఱగాదు సుమీ!
@@ -1863,32 +1734,29 @@
 యెన్నంగ నమాసలందు నిరులు కుమారీ!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('కొ', 'U'), ('న్నా', 'U'), ('ళ్లు', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('క', 'U'), ('ష్ట', '|'), ('ము', '|'), ('కొ', 'U'), ('న్నా', 'U'), ('ళ్లు', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('కు', 'U'), ('న్న', '|'), ('గొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('దు', '|'), ('సు', '|'), ('మీ', 'U'), ('పు', 'U'), ('న్న', '|'), ('మ', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('యె', 'U'), ('న్నం', 'U'), ('గ', '|'), ('న', '|'), ('మా', 'U'), ('స', '|'), ('లం', 'U'), ('దు', '|'), ('ని', '|'), ('రు', '|'), ('లు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>పొంతఁ బని సేయ కెన్నఁడు
 పంతంబులు పలుకఁబోకు ప్రాఙ్ముఖముగ నీ
@@ -1896,32 +1764,29 @@
 కాంతంబులు బయలుపఱుప కమ్మ! కుమారీ!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('పొం', 'U'), ('త', '|'), ('బ', '|'), ('ని', '|'), ('సే', 'U'), ('య', '|'), ('కె', 'U'), ('న్న', '|'), ('డు', '|'), ('పం', 'U'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('బో', 'U'), ('కు', 'U'), ('ప్రా', 'U'), ('ఙ్ము', '|'), ('ఖ', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('దం', 'U'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('దో', 'U'), ('మ', '|'), ('కు', '|'), ('మే', 'U'), ('కాం', 'U'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('బ', '|'), ('య', '|'), ('లు', '|'), ('ప', '|'), ('ఱు', '|'), ('ప', '|'), ('క', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>నడకలలో నడుగుల చ
 ప్పుడు వినఁబడకుండవలయు భువి గుంటలు క
@@ -1929,32 +1794,29 @@
 బడఁతుల మర్యాద లెఱిఁగి బ్రతుకు కుమారీ!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('డ', '|'), ('క', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('డు', '|'), ('గు', '|'), ('ల', '|'), ('చ', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వి', '|'), ('న', '|'), ('బ', '|'), ('డ', '|'), ('కుం', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('భు', '|'), ('వి', '|'), ('గుం', 'U'), ('ట', '|'), ('లు', '|'), ('క', 'U'), ('న్ప', '|'), ('డ', '|'), ('రా', 'U'), ('దు', '|'), ('మ', '|'), ('డ', '|'), ('మ', '|'), ('నొ', 'U'), ('క్కు', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('తు', '|'), ('ల', '|'), ('మ', 'U'), ('ర్యా', 'U'), ('ద', '|'), ('లె', '|'), ('ఱి', '|'), ('గి', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>నవ్వంగ రాదు పలుమఱు
 నవ్వినఁ జిఱునవ్వు గాని నగరా దెపుడున్‌
@@ -1962,32 +1824,29 @@
 జవ్వునఁ గానంగ బడెడి జాడఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('వ్వం', 'U'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('న', 'U'), ('వ్వి', '|'), ('న', '|'), ('జి', '|'), ('ఱు', '|'), ('న', 'U'), ('వ్వు', '|'), ('గా', 'U'), ('ని', '|'), ('న', '|'), ('గ', '|'), ('రా', 'U'), ('దె', '|'), ('పు', '|'), ('డున్', 'U'), ('గ', 'U'), ('వ్వ', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('దం', 'U'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('జ', 'U'), ('వ్వు', '|'), ('న', '|'), ('గా', 'U'), ('నం', 'U'), ('గ', '|'), ('బ', '|'), ('డె', '|'), ('డి', '|'), ('జా', 'U'), ('డ', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>తొడవులు మిక్కిలి గలిగినఁ
 గడుఁ ప్రేమన్‌ మగఁడు మిగుల గారామిడినన్‌
@@ -1995,32 +1854,29 @@
 గడియైనను విడువ రాదు గాదె కుమారీ!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('తొ', '|'), ('డ', '|'), ('వు', '|'), ('లు', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('గ', '|'), ('డు', 'U'), ('ప్రే', 'U'), ('మన్', 'U'), ('మ', '|'), ('గ', '|'), ('డు', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('గా', 'U'), ('రా', 'U'), ('మి', '|'), ('డి', '|'), ('నన్', 'U'), ('ప', '|'), ('డ', '|'), ('తు', '|'), ('క', '|'), ('ప', '|'), ('సు', '|'), ('పుం', 'U'), ('గుం', 'U'), ('కు', '|'), ('మ', '|'), ('గ', '|'), ('డి', '|'), ('యై', 'U'), ('న', '|'), ('ను', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('రా', 'U'), ('దు', '|'), ('గా', 'U'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>చెడుఁగులతో లంజెలతో
 గుడిసేటులతోడఁ బొత్తుఁ కూడదు మది నె
@@ -2028,32 +1884,29 @@
 యడుగులకు న్మడుగులొత్తు మమ్మ కుమారీ!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('డు', '|'), ('గు', '|'), ('ల', '|'), ('తో', 'U'), ('లం', 'U'), ('జె', '|'), ('ల', '|'), ('తో', 'U'), ('గు', '|'), ('డి', '|'), ('సే', 'U'), ('టు', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('బొ', 'U'), ('త్తు', '|'), ('కూ', 'U'), ('డ', '|'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ని', '|'), ('ల', '|'), ('ను', 'U'), ('త్త', '|'), ('మ', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('య', '|'), ('డు', '|'), ('గు', '|'), ('ల', '|'), ('కు', 'U'), ('న్మ', '|'), ('డు', '|'), ('గు', '|'), ('లొ', 'U'), ('త్తు', '|'), ('మ', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>విసువకు పని తగిలినయెడఁ
 గసరకు సేవకుల మిగులఁ గాంతునితోడన్‌
@@ -2061,32 +1914,29 @@
 మసత్యవచనంబు లెన్నఁ డైనఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('సు', '|'), ('వ', '|'), ('కు', '|'), ('ప', '|'), ('ని', '|'), ('త', '|'), ('గి', '|'), ('లి', '|'), ('న', '|'), ('యె', '|'), ('డ', '|'), ('గ', '|'), ('స', '|'), ('ర', '|'), ('కు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ల', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('గాం', 'U'), ('తు', '|'), ('ని', '|'), ('తో', 'U'), ('డన్', 'U'), ('రొ', '|'), ('స', '|'), ('రొ', '|'), ('స', '|'), ('పూ', 'U'), ('న', '|'), ('కు', '|'), ('మా', 'U'), ('డ', '|'), ('కు', '|'), ('మ', '|'), ('స', 'U'), ('త్య', '|'), ('వ', '|'), ('చ', '|'), ('నం', 'U'), ('బు', '|'), ('లె', 'U'), ('న్న', '|'), ('డై', 'U'), ('న', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>వేళాకోళంబులు గ
 య్యాళితనంబులును జగడ మాడుటలును గం
@@ -2094,32 +1944,29 @@
 లాలోచించుటయుఁ గూడ దమ్మ కుమారీ!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('ళా', 'U'), ('కో', 'U'), ('ళం', 'U'), ('బు', '|'), ('లు', '|'), ('గ', 'U'), ('య్యా', 'U'), ('ళి', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('ను', '|'), ('జ', '|'), ('గ', '|'), ('డ', '|'), ('మా', 'U'), ('డు', '|'), ('ట', '|'), ('లు', '|'), ('ను', '|'), ('గం', 'U'), ('గా', 'U'), ('ళీ', 'U'), ('పో', 'U'), ('క', '|'), ('లు', '|'), ('గొం', 'U'), ('డె', '|'), ('ము', '|'), ('లా', 'U'), ('లో', 'U'), ('చిం', 'U'), ('చు', '|'), ('ట', '|'), ('యు', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>బంతులను బక్షపాత మొ
 కింతైనను జేయరాదు హీనదశుల సా
@@ -2127,32 +1974,29 @@
 క్షింతురు బుధులెల్ల సంతసిల్లం గుమారీ!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('బం', 'U'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('బ', 'U'), ('క్ష', '|'), ('పా', 'U'), ('త', '|'), ('మొ', '|'), ('కిం', 'U'), ('తై', 'U'), ('న', '|'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('రా', 'U'), ('దు', '|'), ('హీ', 'U'), ('న', '|'), ('ద', '|'), ('శు', '|'), ('ల', '|'), ('సా', 'U'), ('మ', '|'), ('తు', '|'), ('ల', '|'), ('నొ', '|'), ('క', '|'), ('భం', 'U'), ('గి', '|'), ('ని', '|'), ('రీ', 'U'), ('క్షిం', 'U'), ('తు', '|'), ('రు', '|'), ('బు', '|'), ('ధు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('సం', 'U'), ('త', '|'), ('సి', 'U'), ('ల్లం', 'U'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>మాసినతల మాసినయిలు
 మాసిన వలువలు దరిద్ర మార్గంబులు నెం
@@ -2160,32 +2004,29 @@
 గాసిల్లుదు రల్పదశల గ్రాఁగి కుమారీ!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('సి', '|'), ('న', '|'), ('త', '|'), ('ల', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('యి', '|'), ('లు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('వ', '|'), ('లు', '|'), ('వ', '|'), ('లు', '|'), ('ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('లు', '|'), ('నెం', 'U'), ('తే', 'U'), ('సి', '|'), ('ధ', '|'), ('న', '|'), ('వం', 'U'), ('తు', '|'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('సి', 'U'), ('ల్లు', '|'), ('దు', '|'), ('ర', 'U'), ('ల్ప', '|'), ('ద', '|'), ('శ', '|'), ('ల', 'U'), ('గ్రా', 'U'), ('గి', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>సన్నెకలుం బొత్రమ్మును
 తన్నుకబోరాదు కాలఁ దగిలిన యెడలన్‌
@@ -2193,32 +2034,29 @@
 గ్రన్నన సిరి యందు నిలుచుఁ గాదె కుమారీ!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('న్నె', '|'), ('క', '|'), ('లుం', 'U'), ('బొ', 'U'), ('త్ర', 'U'), ('మ్ము', '|'), ('ను', '|'), ('త', 'U'), ('న్ను', '|'), ('క', '|'), ('బో', 'U'), ('రా', 'U'), ('దు', '|'), ('కా', 'U'), ('ల', '|'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('న', '|'), ('యె', '|'), ('డ', '|'), ('లన్', 'U'), ('గ', 'U'), ('న్ను', '|'), ('ల', '|'), ('న', 'U'), ('ద్దు', '|'), ('కొ', '|'), ('న', 'U'), ('న్వ', '|'), ('లె', 'U'), ('గ్ర', 'U'), ('న్న', '|'), ('న', '|'), ('సి', '|'), ('రి', '|'), ('యం', 'U'), ('దు', '|'), ('ని', '|'), ('లు', '|'), ('చు', '|'), ('గా', 'U'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>దీపము వెలిగిం చెడిచోఁ
 జీపురుపుడ కుంచవలయుఁ జేతుల నేతం
@@ -2226,32 +2064,29 @@
 లోపల నిది తలఁపవలయు రూఢిం గుమారీ!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('వె', '|'), ('లి', '|'), ('గిం', 'U'), ('చె', '|'), ('డి', '|'), ('చో', 'U'), ('జీ', 'U'), ('పు', '|'), ('రు', '|'), ('పు', '|'), ('డ', '|'), ('కుం', 'U'), ('చ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('జే', 'U'), ('తు', '|'), ('ల', '|'), ('నే', 'U'), ('తం', 'U'), ('బా', 'U'), ('ప', '|'), ('ము', '|'), ('పా', 'U'), ('లౌ', 'U'), ('దు', '|'), ('వు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ని', '|'), ('ది', '|'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('రూ', 'U'), ('ఢిం', 'U'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>సరకులయెడ జాగ్రత్తయుఁ
 జుఱుకు పనులయందు భక్తి సుజనులయందున్‌
@@ -2259,32 +2094,29 @@
 దరుణికి జెలువారవలయు ధరణిఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('కు', '|'), ('ల', '|'), ('యె', '|'), ('డ', '|'), ('జా', 'U'), ('గ్ర', 'U'), ('త్త', '|'), ('యు', '|'), ('జు', '|'), ('ఱు', '|'), ('కు', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('భ', 'U'), ('క్తి', '|'), ('సు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('యం', 'U'), ('దున్', 'U'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('య', '|'), ('నా', 'U'), ('థు', '|'), ('ల', '|'), ('యె', '|'), ('డ', '|'), ('లం', 'U'), ('ద', '|'), ('రు', '|'), ('ణి', '|'), ('కి', '|'), ('జె', '|'), ('లు', '|'), ('వా', 'U'), ('ర', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>చెప్పినఁ జెప్పక యుండినఁ
 దప్పక సేయంగవలయుఁ దనపనులెల్లన్‌
@@ -2292,32 +2124,29 @@
 ముప్పొదవును గాదె యెందు ముద్దు కుమారీ!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('జె', 'U'), ('ప్ప', '|'), ('క', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('ద', 'U'), ('ప్ప', '|'), ('క', '|'), ('సే', 'U'), ('యం', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ద', '|'), ('న', '|'), ('ప', '|'), ('ను', '|'), ('లె', '|'), ('ల్లన్', 'U'), ('మె', 'U'), ('ప్పొ', '|'), ('ద', '|'), ('వ', '|'), ('గా', 'U'), ('ను', '|'), ('లే', 'U'), ('దా', 'U'), ('ము', 'U'), ('ప్పొ', '|'), ('ద', '|'), ('వు', '|'), ('ను', '|'), ('గా', 'U'), ('దె', '|'), ('యెం', 'U'), ('దు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>ఎంగిలి పరులకుఁ బెట్టకు
 క్రంగున మ్రోయంగనీకు కాల్మెట్టియలన్‌
@@ -2325,32 +2154,29 @@
 దొంగతనము సేయుబుద్ధి దొలఁచు కుమారీ!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('ఎం', 'U'), ('గి', '|'), ('లి', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('బె', 'U'), ('ట్ట', '|'), ('కు', 'U'), ('క్రం', 'U'), ('గు', '|'), ('న', '|'), ('మ్రో', 'U'), ('యం', 'U'), ('గ', '|'), ('నీ', 'U'), ('కు', '|'), ('కా', 'U'), ('ల్మె', 'U'), ('ట్టి', '|'), ('య', '|'), ('లన్', 'U'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('లా', 'U'), ('భ', '|'), ('ముం', 'U'), ('డి', '|'), ('న', '|'), ('దొం', 'U'), ('గ', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('దొ', '|'), ('ల', '|'), ('చు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>ఆపదల కోర్చి సంపద
 లాపయి భోగించు ననెడి హర్షోక్తుల నీ
@@ -2358,32 +2184,29 @@
 దీపముచందమున వెలుఁగఁ దివురు కుమారీ!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('కో', 'U'), ('ర్చి', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లా', 'U'), ('ప', '|'), ('యి', '|'), ('భో', 'U'), ('గిం', 'U'), ('చు', '|'), ('న', '|'), ('నె', '|'), ('డి', '|'), ('హ', 'U'), ('ర్షో', 'U'), ('క్తు', '|'), ('ల', '|'), ('నీ', 'U'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('చు', '|'), ('లాం', 'U'), ('త', '|'), ('రు', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('వె', '|'), ('లు', '|'), ('గ', '|'), ('ది', '|'), ('వు', '|'), ('రు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>తనకడుపు కట్టుకొని యై
 నను జుట్టమ్మునకు బెట్టి నను గీర్తి వహిం
@@ -2391,32 +2214,29 @@
 దన కెవ్వరు సాటిరారు ధరణిఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('క', '|'), ('డు', '|'), ('పు', '|'), ('క', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('యై', 'U'), ('న', '|'), ('ను', '|'), ('జు', 'U'), ('ట్ట', 'U'), ('మ్ము', '|'), ('న', '|'), ('కు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('ను', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('హిం', 'U'), ('చు', '|'), ('ను', '|'), ('భు', 'U'), ('క్తి', '|'), ('ము', 'U'), ('క్తు', '|'), ('ల', 'U'), ('బ్బు', '|'), ('ను', '|'), ('ద', '|'), ('న', '|'), ('కె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('సా', 'U'), ('టి', '|'), ('రా', 'U'), ('రు', '|'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>వడి దనిపించుకొనుటకున్‌
 గడి యైననుఁ బట్టకుండుఁ గాంతలలో నె
@@ -2424,32 +2244,29 @@
 నడవడి నేర్చుటయె కడు ఘనంబు కుమారీ!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('డి', '|'), ('ద', '|'), ('ని', '|'), ('పిం', 'U'), ('చు', '|'), ('కొ', '|'), ('ను', '|'), ('ట', '|'), ('కున్', 'U'), ('గ', '|'), ('డి', '|'), ('యై', 'U'), ('న', '|'), ('ను', '|'), ('బ', 'U'), ('ట్ట', '|'), ('కుం', 'U'), ('డు', '|'), ('గాం', 'U'), ('త', '|'), ('ల', '|'), ('లో', 'U'), ('నె', 'U'), ('క్కు', '|'), ('డు', '|'), ('గు', '|'), ('ణ', '|'), ('వ', '|'), ('తి', '|'), ('య', '|'), ('ని', '|'), ('పిం', 'U'), ('చె', '|'), ('డి', '|'), ('న', '|'), ('డ', '|'), ('వ', '|'), ('డి', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ట', '|'), ('యె', '|'), ('క', '|'), ('డు', '|'), ('ఘ', '|'), ('నం', 'U'), ('బు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>చెప్పకు చేసినమేలు నొ
 కప్పుడయినఁ గాని దాని హర్షింపరుగా
@@ -2457,32 +2274,29 @@
 దప్పే యని చిత్తమందుఁ దలఁపు కుమారీ!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('చె', 'U'), ('ప్ప', '|'), ('కు', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('మే', 'U'), ('లు', '|'), ('నొ', '|'), ('క', 'U'), ('ప్పు', '|'), ('డ', '|'), ('యి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('దా', 'U'), ('ని', '|'), ('హ', 'U'), ('ర్షిం', 'U'), ('ప', '|'), ('రు', '|'), ('గా', 'U'), ('గొ', 'U'), ('ప్ప', '|'), ('లు', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('న', '|'), ('ది', '|'), ('యు', '|'), ('ను', '|'), ('ద', 'U'), ('ప్పే', 'U'), ('య', '|'), ('ని', '|'), ('చి', 'U'), ('త్త', '|'), ('మం', 'U'), ('దు', '|'), ('ద', '|'), ('ల', '|'), ('పు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>ఎంతటి యాఁకలి కలిగిన
 బంతిని గూర్చుండి ముందు భక్షింపకు సా
@@ -2490,32 +2304,29 @@
 మంతైనను జెల్ల దందు రమ్మ కుమారీ!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('ఎం', 'U'), ('త', '|'), ('టి', '|'), ('యా', 'U'), ('క', '|'), ('లి', '|'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('బం', 'U'), ('తి', '|'), ('ని', '|'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('ముం', 'U'), ('దు', '|'), ('భ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('కు', '|'), ('సా', 'U'), ('మం', 'U'), ('తు', '|'), ('లు', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', '|'), ('లు', '|'), ('ను', '|'), ('ని', '|'), ('సు', '|'), ('మం', 'U'), ('తై', 'U'), ('న', '|'), ('ను', '|'), ('జె', 'U'), ('ల్ల', '|'), ('దం', 'U'), ('దు', '|'), ('ర', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>అధికారము లేనిపనుల
 కధికారము సేయఁబోకు మందునఁ గోపం
@@ -2523,32 +2334,29 @@
 బుధు లది విని హర్ష మొందఁ బోరు కుమారీ!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('క', '|'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('బో', 'U'), ('కు', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('గో', 'U'), ('పం', 'U'), ('బ', '|'), ('ధి', '|'), ('కం', 'U'), ('బ', '|'), ('గు', '|'), ('నీ', 'U'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('బు', '|'), ('ధు', '|'), ('ల', '|'), ('ది', '|'), ('వి', '|'), ('ని', '|'), ('హ', 'U'), ('ర్ష', '|'), ('మొం', 'U'), ('ద', '|'), ('బో', 'U'), ('రు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>తా నమ్ముడు వడియైనం
 దీనుండగు ధవునియార్తిఁ దీర్చగ సతికిన్‌
@@ -2556,32 +2364,29 @@
 జాననఁ దలపోయవలయు నాత్మఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('న', 'U'), ('మ్ము', '|'), ('డు', '|'), ('వ', '|'), ('డి', '|'), ('యై', 'U'), ('నం', 'U'), ('దీ', 'U'), ('నుం', 'U'), ('డ', '|'), ('గు', '|'), ('ధ', '|'), ('వు', '|'), ('ని', '|'), ('యా', 'U'), ('ర్తి', '|'), ('దీ', 'U'), ('ర్చ', '|'), ('గ', '|'), ('స', '|'), ('తి', '|'), ('కిన్', 'U'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('చం', 'U'), ('ద్ర', '|'), ('మ', '|'), ('తీ', 'U'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('న', '|'), ('న', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('నా', 'U'), ('త్మ', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>తనకంటెఁ బేదరాండ్రం
 గని యంతకుఁ దనకు మేలు గా యనవలయున్‌
@@ -2589,32 +2394,29 @@
 గని గుటకలు మ్రింగ మేలు గాదు కుమారీ!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('కం', 'U'), ('టె', '|'), ('బే', 'U'), ('ద', '|'), ('రాం', 'U'), ('డ్రం', 'U'), ('గ', '|'), ('ని', '|'), ('యం', 'U'), ('త', '|'), ('కు', '|'), ('ద', '|'), ('న', '|'), ('కు', '|'), ('మే', 'U'), ('లు', '|'), ('గా', 'U'), ('య', '|'), ('న', '|'), ('వ', '|'), ('ల', '|'), ('యున్', 'U'), ('ద', '|'), ('న', '|'), ('కం', 'U'), ('టె', '|'), ('భా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('గు', '|'), ('ట', '|'), ('క', '|'), ('లు', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('మే', 'U'), ('లు', '|'), ('గా', 'U'), ('దు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>విఱుగఁబడి నడువఁ గూడదు
 పరుల నడక లెన్ని తప్పు బట్టఁజనదు ని
@@ -2622,32 +2424,29 @@
 కఱపఁగవలె మేలు మేలు గలదు కుమారీ!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ఱు', '|'), ('గ', '|'), ('బ', '|'), ('డి', '|'), ('న', '|'), ('డు', '|'), ('వ', '|'), ('గూ', 'U'), ('డ', '|'), ('దు', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('న', '|'), ('డ', '|'), ('క', '|'), ('లె', 'U'), ('న్ని', '|'), ('త', 'U'), ('ప్పు', '|'), ('బ', 'U'), ('ట్ట', '|'), ('జ', '|'), ('న', '|'), ('దు', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('వ', '|'), ('చిం', 'U'), ('ప', '|'), ('గూ', 'U'), ('డ', '|'), ('దు', '|'), ('క', '|'), ('ఱ', '|'), ('ప', '|'), ('గ', '|'), ('వ', '|'), ('లె', '|'), ('మే', 'U'), ('లు', '|'), ('మే', 'U'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('దు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>కోపమున నప్పు డాడ ని
 రూపించినమాటఁ గొన్ని రోజులు చనినం
@@ -2655,32 +2454,29 @@
 లోపలఁ గొనవలయు ధర్మలోల! కుమారీ!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('ప్పు', '|'), ('డా', 'U'), ('డ', '|'), ('ని', '|'), ('రూ', 'U'), ('పిం', 'U'), ('చి', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('గొ', 'U'), ('న్ని', '|'), ('రో', 'U'), ('జు', '|'), ('లు', '|'), ('చ', '|'), ('ని', '|'), ('నం', 'U'), ('జూ', 'U'), ('పె', 'U'), ('ట్టు', '|'), ('దు', '|'), ('న', '|'), ('ని', '|'), ('శాం', 'U'), ('త', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('గొ', '|'), ('న', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('లో', 'U'), ('ల', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>కలహపడునింట నిలువదు
 కలుముల జవరాలు కానఁ గలకాలం బే
@@ -2688,32 +2484,29 @@
 మెలఁగంగా నేర్చెనేని మేలు కుమారీ!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('హ', '|'), ('ప', '|'), ('డు', '|'), ('నిం', 'U'), ('ట', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('దు', '|'), ('క', '|'), ('లు', '|'), ('ము', '|'), ('ల', '|'), ('జ', '|'), ('వ', '|'), ('రా', 'U'), ('లు', '|'), ('కా', 'U'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బే', 'U'), ('క', '|'), ('ల', '|'), ('హ', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('మె', '|'), ('ల', '|'), ('గం', 'U'), ('గా', 'U'), ('నే', 'U'), ('ర్చె', '|'), ('నే', 'U'), ('ని', '|'), ('మే', 'U'), ('లు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>గురుశుక్రవారముల మం
 దిర గేహళులందు లక్ష్మి తిరముగ నిలుచుం
@@ -2721,32 +2514,29 @@
 గురుభక్తి మెలంగఁ బాయు గొదువ కుమారీ!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('రు', '|'), ('శు', 'U'), ('క్ర', '|'), ('వా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('గే', 'U'), ('హ', '|'), ('ళు', '|'), ('లం', 'U'), ('దు', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('తి', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('ని', '|'), ('లు', '|'), ('చుం', 'U'), ('గ', '|'), ('ర', '|'), ('గ', '|'), ('రి', '|'), ('క', '|'), ('న', '|'), ('ల', '|'), ('కి', '|'), ('మ్రు', 'U'), ('గ్గి', '|'), ('డి', '|'), ('గు', '|'), ('రు', '|'), ('భ', 'U'), ('క్తి', '|'), ('మె', '|'), ('లం', 'U'), ('గ', '|'), ('బా', 'U'), ('యు', '|'), ('గొ', '|'), ('దు', '|'), ('వ', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>అపకీర్తి బొందుట క
 ష్టపుఁబని గా దొక్క గడియ చాలును గీర్తిన్‌
@@ -2754,32 +2544,29 @@
 జపలగుణములెల్లఁ బాసి చనఁగఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('బొం', 'U'), ('దు', '|'), ('ట', '|'), ('క', 'U'), ('ష్ట', '|'), ('పు', '|'), ('బ', '|'), ('ని', '|'), ('గా', 'U'), ('దొ', 'U'), ('క్క', '|'), ('గ', '|'), ('డి', '|'), ('య', '|'), ('చా', 'U'), ('లు', '|'), ('ను', '|'), ('గీ', 'U'), ('ర్తిన్', 'U'), ('ని', '|'), ('పు', '|'), ('ణ', '|'), ('త', '|'), ('వ', '|'), ('హిం', 'U'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ను', '|'), ('జ', '|'), ('ప', '|'), ('ల', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బా', 'U'), ('సి', '|'), ('చ', '|'), ('న', '|'), ('గ', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>సరకులు బట్టలు వన్నెల
 కెరవులు తేఁదగదు తెచ్చెనేని సరకు ల
@@ -2787,32 +2574,29 @@
 మరలింపకయున్నఁ దప్పు మాట కుమారీ!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('కు', '|'), ('లు', '|'), ('బ', 'U'), ('ట్ట', '|'), ('లు', '|'), ('వ', 'U'), ('న్నె', '|'), ('ల', '|'), ('కె', '|'), ('ర', '|'), ('వు', '|'), ('లు', '|'), ('తే', 'U'), ('ద', '|'), ('గ', '|'), ('దు', '|'), ('తె', 'U'), ('చ్చె', '|'), ('నే', 'U'), ('ని', '|'), ('స', '|'), ('ర', '|'), ('కు', '|'), ('ల', 'U'), ('క్క', '|'), ('ఱ', '|'), ('దీ', 'U'), ('ర్చు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('వెం', 'U'), ('ట', '|'), ('నె', '|'), ('మ', '|'), ('ర', '|'), ('లిం', 'U'), ('ప', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('ద', 'U'), ('ప్పు', '|'), ('మా', 'U'), ('ట', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>గొప్పదశ వచ్చెననుచు నొ
 కప్పుడయిన గర్వపడకు మదిఁ దొలఁగినచో
@@ -2820,32 +2604,29 @@
 దప్పని దండించు దండధరుఁడు కుమారీ!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('గొ', 'U'), ('ప్ప', '|'), ('ద', '|'), ('శ', '|'), ('వ', 'U'), ('చ్చె', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('నొ', '|'), ('క', 'U'), ('ప్పు', '|'), ('డ', '|'), ('యి', '|'), ('న', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ప', '|'), ('డ', '|'), ('కు', '|'), ('మ', '|'), ('ది', '|'), ('దొ', '|'), ('ల', '|'), ('గి', '|'), ('న', '|'), ('చో', 'U'), ('జ', 'U'), ('ప్ప', 'U'), ('ట్లు', '|'), ('చ', '|'), ('ర', '|'), ('తు', '|'), ('రం', 'U'), ('ద', '|'), ('ఱు', '|'), ('ద', 'U'), ('ప్ప', '|'), ('ని', '|'), ('దం', 'U'), ('డిం', 'U'), ('చు', '|'), ('దం', 'U'), ('డ', '|'), ('ధ', '|'), ('రు', '|'), ('డు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>సుమతియును జంద్రమతియును
 దమయంతియు జానకియును ద్రౌపదియును బ
@@ -2853,32 +2634,29 @@
 గ్రమమున నడుపుటలు తలఁప గాదె? కుమారీ!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('మ', '|'), ('తి', '|'), ('యు', '|'), ('ను', '|'), ('జం', 'U'), ('ద్ర', '|'), ('మ', '|'), ('తి', '|'), ('యు', '|'), ('ను', '|'), ('ద', '|'), ('మ', '|'), ('యం', 'U'), ('తి', '|'), ('యు', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('యు', '|'), ('ను', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('ది', '|'), ('యు', '|'), ('ను', '|'), ('బ', 'U'), ('న్న', '|'), ('ము', '|'), ('లం', 'U'), ('బ', '|'), ('డి', '|'), ('ప', '|'), ('తి', '|'), ('భ', 'U'), ('క్తిం', 'U'), ('గ్ర', '|'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('న', '|'), ('డు', '|'), ('పు', '|'), ('ట', '|'), ('లు', '|'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('గా', 'U'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>సుమతి యను రమణి పతికై
 శ్రమనొందుట నీచసేవ సలుపుటయు వియ
@@ -2886,32 +2664,29 @@
 కమరించుటయుం దలంపు మాత్మఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('మ', '|'), ('తి', '|'), ('య', '|'), ('ను', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('ప', '|'), ('తి', '|'), ('కై', 'U'), ('శ్ర', '|'), ('మ', '|'), ('నొం', 'U'), ('దు', '|'), ('ట', '|'), ('నీ', 'U'), ('చ', '|'), ('సే', 'U'), ('వ', '|'), ('స', '|'), ('లు', '|'), ('పు', '|'), ('ట', '|'), ('యు', '|'), ('వి', '|'), ('య', 'U'), ('ద్గ', '|'), ('మ', '|'), ('న', '|'), ('ని', '|'), ('రో', 'U'), ('ధ', '|'), ('ము', '|'), ('భా', 'U'), ('ను', '|'), ('న', '|'), ('క', '|'), ('మ', '|'), ('రిం', 'U'), ('చు', '|'), ('ట', '|'), ('యుం', 'U'), ('ద', '|'), ('లం', 'U'), ('పు', '|'), ('మా', 'U'), ('త్మ', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>వాణియు శర్వాణియు హరి
 రాణియు వాక్కునను మైనురంబున నుంటల్‌
@@ -2919,32 +2694,29 @@
 బాణిగ్రాహియెడ నిల్పు భక్తిఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('ణి', '|'), ('యు', '|'), ('శ', 'U'), ('ర్వా', 'U'), ('ణి', '|'), ('యు', '|'), ('హ', '|'), ('రి', '|'), ('రా', 'U'), ('ణి', '|'), ('యు', '|'), ('వా', 'U'), ('క్కు', '|'), ('న', '|'), ('ను', '|'), ('మై', 'U'), ('ను', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('టల్', 'U'), ('రా', 'U'), ('ణ', '|'), ('ది', '|'), ('ల', '|'), ('కిం', 'U'), ('చి', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('బా', 'U'), ('ణి', 'U'), ('గ్రా', 'U'), ('హి', '|'), ('యె', '|'), ('డ', '|'), ('ని', 'U'), ('ల్పు', '|'), ('భ', 'U'), ('క్తి', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>వడ్డించునపుడు తాఁ గను
 బిడ్డనికిం దల్లిభంగిం బ్రేమ దలిర్పన్‌
@@ -2952,32 +2724,29 @@
 నెడ్డెతనము మానవలయు నెందుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('డ్డిం', 'U'), ('చు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('తా', 'U'), ('గ', '|'), ('ను', '|'), ('బి', 'U'), ('డ్డ', '|'), ('ని', '|'), ('కిం', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('భం', 'U'), ('గిం', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('ద', '|'), ('లి', '|'), ('ర్పన్', 'U'), ('వ', 'U'), ('డ్డిం', 'U'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('భ', 'U'), ('ర్త', '|'), ('కు', '|'), ('నె', 'U'), ('డ్డె', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('నెం', 'U'), ('దు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>పవళించునపుడు రంభా
 కువలయదళనేత్రభంగి గోరినరీతిన్‌
@@ -2985,32 +2754,29 @@
 దివి భువి నుతిఁ బొందునట్టి తెఱవ కుమారీ!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('వ', '|'), ('ళిం', 'U'), ('చు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('రం', 'U'), ('భా', 'U'), ('కు', '|'), ('వ', '|'), ('ల', '|'), ('య', '|'), ('ద', '|'), ('ళ', '|'), ('నే', 'U'), ('త్ర', '|'), ('భం', 'U'), ('గి', '|'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('రీ', 'U'), ('తిన్', 'U'), ('ధ', '|'), ('వు', '|'), ('ని', '|'), ('కొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ను', '|'), ('ది', '|'), ('వి', '|'), ('భు', '|'), ('వి', '|'), ('ను', '|'), ('తి', '|'), ('బొం', 'U'), ('దు', '|'), ('న', 'U'), ('ట్టి', '|'), ('తె', '|'), ('ఱ', '|'), ('వ', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>ఆలోచన యొనరించెడి
 వేళలలో మంత్రిభంగి వివరింపవలెన్‌
@@ -3018,32 +2784,29 @@
 భూలోకమునందుఁ గీర్తి బొందుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('యొ', '|'), ('న', '|'), ('రిం', 'U'), ('చె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('ల', '|'), ('లో', 'U'), ('మం', 'U'), ('త్రి', '|'), ('భం', 'U'), ('గి', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', '|'), ('లెన్', 'U'), ('కా', 'U'), ('లో', 'U'), ('చి', '|'), ('త', '|'), ('కృ', 'U'), ('త్యం', 'U'), ('బు', '|'), ('ల', '|'), ('భూ', 'U'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('బొం', 'U'), ('దు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>పనిసేయునపుడు దాసీ
 వనితవిధంబునను మేను పంపఁగవలయున్‌
@@ -3051,32 +2814,29 @@
 ఘనత గలుగు దానివలనఁ గాదె కుమారీ!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ని', '|'), ('సే', 'U'), ('యు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('దా', 'U'), ('సీ', 'U'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('మే', 'U'), ('ను', '|'), ('పం', 'U'), ('ప', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యున్', 'U'), ('ధ', '|'), ('న', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('సు', '|'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('ను', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('దా', 'U'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('గా', 'U'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>దానములు ధర్మకార్యము
 లూనంగాఁ గలిగినంత యుక్తక్రియలన్‌
@@ -3084,32 +2844,29 @@
 గా నెఱిఁగి యొనర్పవలయుఁ గాదె కుమారీ!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('లూ', 'U'), ('నం', 'U'), ('గా', 'U'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('నం', 'U'), ('త', '|'), ('యు', 'U'), ('క్త', 'U'), ('క్రి', '|'), ('య', '|'), ('లన్', 'U'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('తు', '|'), ('ల', '|'), ('కి', '|'), ('ది', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('గా', 'U'), ('నె', '|'), ('ఱి', '|'), ('గి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('గా', 'U'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>శ్రమ యెంత సంభవించిన
 క్షమ మఱువఁగ రాదు ధరణి చందంబున స
@@ -3117,32 +2874,29 @@
 రమణియె లోకంబునందు రమణి కుమారీ!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('శ్ర', '|'), ('మ', '|'), ('యెం', 'U'), ('త', '|'), ('సం', 'U'), ('భ', '|'), ('విం', 'U'), ('చి', '|'), ('న', 'U'), ('క్ష', '|'), ('మ', '|'), ('మ', '|'), ('ఱు', '|'), ('వ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('స', 'U'), ('త్య', '|'), ('ము', '|'), ('న', 'U'), ('బ్ర', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('న', '|'), ('యా', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('యె', '|'), ('లో', 'U'), ('కం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>ఈ రీతిఁ దిరుగ నేర్చిన
 నారీమణి కీర్తిఁ బొందు నరలోకమునన్‌
@@ -3150,32 +2904,29 @@
 ఘోరదురితసంఘ మెల్ల గుందుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('ఈ', 'U'), ('రీ', 'U'), ('తి', '|'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('నా', 'U'), ('రీ', 'U'), ('మ', '|'), ('ణి', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('బొం', 'U'), ('దు', '|'), ('న', '|'), ('ర', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('నన్', 'U'), ('దూ', 'U'), ('ఱు', '|'), ('లు', '|'), ('తొ', '|'), ('లం', 'U'), ('గి', '|'), ('పో', 'U'), ('వు', '|'), ('ను', '|'), ('ఘో', 'U'), ('ర', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('సం', 'U'), ('ఘ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('గుం', 'U'), ('దు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>కామము సంకల్పంబున
 బామొందెడుఁ దొలగుఁ దేహ భావము దెలియన్‌
@@ -3183,32 +2934,29 @@
 క్షేమం బగు ముక్తిఁ గని సుఖింపు కుమారీ!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('మ', '|'), ('ము', '|'), ('సం', 'U'), ('క', 'U'), ('ల్పం', 'U'), ('బు', '|'), ('న', '|'), ('బా', 'U'), ('మొం', 'U'), ('దె', '|'), ('డు', '|'), ('దొ', '|'), ('ల', '|'), ('గు', '|'), ('దే', 'U'), ('హ', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('దె', '|'), ('లి', '|'), ('యన్', 'U'), ('వే', 'U'), ('మ', '|'), ('ఱు', '|'), ('ని', '|'), ('ది', '|'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('చు', '|'), ('ట', 'U'), ('క్షే', 'U'), ('మం', 'U'), ('బ', '|'), ('గు', '|'), ('ము', 'U'), ('క్తి', '|'), ('గ', '|'), ('ని', '|'), ('సు', '|'), ('ఖిం', 'U'), ('పు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>పరజనము లాచరించెడి
 దురితంబునఁ గ్రోధగుణము దోఁచెడి నధిక
@@ -3216,32 +2964,29 @@
 దఱుఁగు నది యెఱింగి మెలఁగ దగును కుమారీ!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('లా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చె', '|'), ('డి', '|'), ('దు', '|'), ('రి', '|'), ('తం', 'U'), ('బు', '|'), ('న', 'U'), ('గ్రో', 'U'), ('ధ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('దో', 'U'), ('చె', '|'), ('డి', '|'), ('న', '|'), ('ధి', '|'), ('క', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణన్', 'U'), ('క్ష', '|'), ('మ', '|'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('నం', 'U'), ('ద', '|'), ('ఱు', '|'), ('గు', '|'), ('న', '|'), ('ది', '|'), ('యె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('మె', '|'), ('ల', '|'), ('గ', '|'), ('ద', '|'), ('గు', '|'), ('ను', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>దృశ్యపదార్థము లెల్లను
 నశ్యము లని తలపఁ కుండినను లోపంబౌ
@@ -3249,32 +2994,29 @@
 వశ్యము చిత్తమునఁ దలఁప వలదె కుమారీ!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('దృ', 'U'), ('శ్య', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('న', 'U'), ('శ్య', '|'), ('ము', '|'), ('ల', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('లో', 'U'), ('పం', 'U'), ('బౌ', 'U'), ('దృ', 'U'), ('శ్యం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('స్థి', '|'), ('ర', '|'), ('త', '|'), ('న', '|'), ('వ', 'U'), ('శ్య', '|'), ('ము', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('న', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>జనియించెడు నజ్ఞానం
 బున మోహగుణంబు, ధర్మమునఁ బరికింపం
@@ -3282,32 +3024,29 @@
 గనుఁగొని మెలఁగంగ వలయుఁ గాదె కుమారీ!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ని', '|'), ('యిం', 'U'), ('చె', '|'), ('డు', '|'), ('న', 'U'), ('జ్ఞా', 'U'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('మో', 'U'), ('హ', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('న', '|'), ('బ', '|'), ('రి', '|'), ('కిం', 'U'), ('పం', 'U'), ('దు', '|'), ('ను', '|'), ('మా', 'U'), ('డ', '|'), ('బ', '|'), ('డు', '|'), ('ను', '|'), ('దీ', 'U'), ('నిం', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('మె', '|'), ('ల', '|'), ('గం', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('గా', 'U'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>కులమున విత్తంబున వి
 ద్యలను మదం బుద్భవించు నాయా పెంపుల్‌
@@ -3315,32 +3054,29 @@
 జ్జలజంబునఁ దలఁపవలయు సతముఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', '|'), ('ను', '|'), ('మ', '|'), ('దం', 'U'), ('బు', 'U'), ('ద్భ', '|'), ('విం', 'U'), ('చు', '|'), ('నా', 'U'), ('యా', 'U'), ('పెం', 'U'), ('పుల్', 'U'), ('త', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('మ', '|'), ('ర', '|'), ('లు', '|'), ('ని', '|'), ('ది', '|'), ('హృ', 'U'), ('జ్జ', '|'), ('ల', '|'), ('జం', 'U'), ('బు', '|'), ('న', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('స', '|'), ('త', '|'), ('ము', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>మాత్సర్య మొదవు సత్యము
 హృత్సరసీజమున లేమి నెల్లప్పుడుఁ దా
@@ -3348,32 +3084,29 @@
 మాత్సర్య మణంగుఁ దెలిసి మనుము కుమారీ!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('త్స', 'U'), ('ర్య', '|'), ('మొ', '|'), ('ద', '|'), ('వు', '|'), ('స', 'U'), ('త్య', '|'), ('ము', '|'), ('హృ', 'U'), ('త్స', '|'), ('ర', '|'), ('సీ', 'U'), ('జ', '|'), ('ము', '|'), ('న', '|'), ('లే', 'U'), ('మి', '|'), ('నె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('దా', 'U'), ('స', 'U'), ('త్సే', 'U'), ('వ', '|'), ('యం', 'U'), ('దు', '|'), ('ది', '|'), ('రి', '|'), ('గి', '|'), ('న', '|'), ('మా', 'U'), ('త్స', 'U'), ('ర్య', '|'), ('మ', '|'), ('ణం', 'U'), ('గు', '|'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('మ', '|'), ('ను', '|'), ('ము', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>బహుకష్టములం బొందక
 మహిలో సమకూడఁబోదు మానవజన్మం
@@ -3381,32 +3114,29 @@
 నిహపరములఁ గొనెడుజాడ లెఱుఁగు కుమారీ!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('హు', '|'), ('క', 'U'), ('ష్ట', '|'), ('ము', '|'), ('లం', 'U'), ('బొం', 'U'), ('ద', '|'), ('క', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('స', '|'), ('మ', '|'), ('కూ', 'U'), ('డ', '|'), ('బో', 'U'), ('దు', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బ', '|'), ('హ', '|'), ('హా', 'U'), ('యీ', 'U'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('న', '|'), ('ని', '|'), ('హ', '|'), ('ప', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('గొ', '|'), ('నె', '|'), ('డు', '|'), ('జా', 'U'), ('డ', '|'), ('లె', '|'), ('ఱు', '|'), ('గు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>ఎన్నాళ్లు బ్రతుకఁ బోదురు
 కొన్నాళ్లకు మరణదశలఁ గ్రుంగుట జగమం
@@ -3414,32 +3144,29 @@
 కిన్నిహితము సతము మంచి కీర్తి కుమారీ!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('న్నా', 'U'), ('ళ్లు', 'U'), ('బ్ర', '|'), ('తు', '|'), ('క', '|'), ('బో', 'U'), ('దు', '|'), ('రు', '|'), ('కొ', 'U'), ('న్నా', 'U'), ('ళ్ల', '|'), ('కు', '|'), ('మ', '|'), ('ర', '|'), ('ణ', '|'), ('ద', '|'), ('శ', '|'), ('ల', 'U'), ('గ్రుం', 'U'), ('గు', '|'), ('ట', '|'), ('జ', '|'), ('గ', '|'), ('మం', 'U'), ('దు', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('రి', '|'), ('కం', 'U'), ('ద', '|'), ('ఱి', '|'), ('కి', 'U'), ('న్ని', '|'), ('హి', '|'), ('త', '|'), ('ము', '|'), ('స', '|'), ('త', '|'), ('ము', '|'), ('మం', 'U'), ('చి', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>పెనిమిటికన్నఁ బతివ్రత
 మునుపే మృతిఁ బొందెనేనిఁ బురుషాగమనం
@@ -3447,32 +3174,29 @@
 గనుగొని యనురాగ మెనయఁ గలయుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('ని', '|'), ('మి', '|'), ('టి', '|'), ('క', 'U'), ('న్న', '|'), ('బ', '|'), ('తి', 'U'), ('వ్ర', '|'), ('త', '|'), ('ము', '|'), ('ను', '|'), ('పే', 'U'), ('మృ', '|'), ('తి', '|'), ('బొం', 'U'), ('దె', '|'), ('నే', 'U'), ('ని', '|'), ('బు', '|'), ('రు', '|'), ('షా', 'U'), ('గ', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('కె', '|'), ('దు', '|'), ('రు', '|'), ('చూ', 'U'), ('చు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('య', '|'), ('ను', '|'), ('రా', 'U'), ('గ', '|'), ('మె', '|'), ('న', '|'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('యు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>మును నాథుఁడు దరలినచో
 వెనువెంటనె పోయి యెల్ల వేల్పులు పొగడం
@@ -3480,32 +3204,29 @@
 ఘనకీర్తులఁ బొందుచుండుఁ గాదె కుమారీ!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ను', '|'), ('నా', 'U'), ('థు', '|'), ('డు', '|'), ('ద', '|'), ('ర', '|'), ('లి', '|'), ('న', '|'), ('చో', 'U'), ('వె', '|'), ('ను', '|'), ('వెం', 'U'), ('ట', '|'), ('నె', '|'), ('పో', 'U'), ('యి', '|'), ('యె', 'U'), ('ల్ల', '|'), ('వే', 'U'), ('ల్పు', '|'), ('లు', '|'), ('పొ', '|'), ('గ', '|'), ('డం', 'U'), ('గ', '|'), ('ని', '|'), ('యెం', 'U'), ('దు', '|'), ('నిం', 'U'), ('దు', '|'), ('నం', 'U'), ('దు', '|'), ('ను', '|'), ('ఘ', '|'), ('న', '|'), ('కీ', 'U'), ('ర్తు', '|'), ('ల', '|'), ('బొం', 'U'), ('దు', '|'), ('చుం', 'U'), ('డు', '|'), ('గా', 'U'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>మఱవవలెఁ గీడు నెన్నఁడు
 మఱవంగారాదు మేలు మర్యాదలలోఁ
@@ -3513,32 +3234,29 @@
 దరిఁ బ్రేమ మెలంగవలయుఁ దరుణి కుమారీ!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ఱ', '|'), ('వ', '|'), ('వ', '|'), ('లె', '|'), ('గీ', 'U'), ('డు', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('మ', '|'), ('ఱ', '|'), ('వం', 'U'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('మే', 'U'), ('లు', '|'), ('మ', 'U'), ('ర్యా', 'U'), ('ద', '|'), ('ల', '|'), ('లో', 'U'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('వ', '|'), ('లె', '|'), ('స', 'U'), ('ర్వ', '|'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('ద', '|'), ('రి', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('మె', '|'), ('లం', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ద', '|'), ('రు', '|'), ('ణి', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>ఆకు లొకిన్నియుఁ జేకొని
 పోఁక నమిలి సున్న మడుగఁ బోయినఁ గని యీ
@@ -3546,32 +3264,29 @@
 కైకొనవలె మంచినడత ఘనతఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('కు', '|'), ('లొ', '|'), ('కి', 'U'), ('న్ని', '|'), ('యు', '|'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('పో', 'U'), ('క', '|'), ('న', '|'), ('మి', '|'), ('లి', '|'), ('సు', 'U'), ('న్న', '|'), ('మ', '|'), ('డు', '|'), ('గ', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('గ', '|'), ('ని', '|'), ('యీ', 'U'), ('లో', 'U'), ('కు', '|'), ('లు', '|'), ('న', 'U'), ('వ్వు', '|'), ('దు', '|'), ('రు', '|'), ('సు', '|'), ('మీ', 'U'), ('కై', 'U'), ('కొ', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('మం', 'U'), ('చి', '|'), ('న', '|'), ('డ', '|'), ('త', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>నేలన్‌ వ్రాలిన పత్రము
 లోలిం జోడించి, మడచు చుండిన యవియున్‌
@@ -3579,32 +3294,29 @@
 దూలించు దరిద్రదశల దోఁచఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('లన్', 'U'), ('వ్రా', 'U'), ('లి', '|'), ('న', '|'), ('ప', 'U'), ('త్ర', '|'), ('ము', '|'), ('లో', 'U'), ('లిం', 'U'), ('జో', 'U'), ('డిం', 'U'), ('చి', '|'), ('మ', '|'), ('డ', '|'), ('చు', '|'), ('చుం', 'U'), ('డి', '|'), ('న', '|'), ('య', '|'), ('వి', '|'), ('యున్', 'U'), ('బో', 'U'), ('ల', '|'), ('గ', '|'), ('సు', 'U'), ('న్న', '|'), ('పు', '|'), ('టా', 'U'), ('కు', '|'), ('లు', '|'), ('దూ', 'U'), ('లిం', 'U'), ('చు', '|'), ('ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('ద', '|'), ('శ', '|'), ('ల', '|'), ('దో', 'U'), ('చ', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>ఇద్దఱు గూడుక యొక చో
 నొద్దిక మాటాడుచుండ నొదిఁగి యొదిఁగి యా
@@ -3612,32 +3324,29 @@
 పెద్దతనంబెల్ల నణఁగ బెట్టుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('ఇ', 'U'), ('ద్ద', '|'), ('ఱు', '|'), ('గూ', 'U'), ('డు', '|'), ('క', '|'), ('యొ', '|'), ('క', '|'), ('చో', 'U'), ('నొ', 'U'), ('ద్ది', '|'), ('క', '|'), ('మా', 'U'), ('టా', 'U'), ('డు', '|'), ('చుం', 'U'), ('డ', '|'), ('నొ', '|'), ('ది', '|'), ('గి', '|'), ('యొ', '|'), ('ది', '|'), ('గి', '|'), ('యా', 'U'), ('యొ', 'U'), ('ద్ద', '|'), ('కు', '|'), ('జ', '|'), ('న', '|'), ('గూ', 'U'), ('డ', '|'), ('దు', '|'), ('త', '|'), ('న', '|'), ('పె', 'U'), ('ద్ద', '|'), ('త', '|'), ('నం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('న', '|'), ('ణ', '|'), ('గ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>తుడుపుదుమారమ్మును జెరు
 గుడుధూళియు మేషరజముఁ గూడ దెపుడు మైఁ
@@ -3645,32 +3354,29 @@
 బడఁతుల మర్యాద లెఱిఁగి బ్రతుకు కుమారీ!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('తు', '|'), ('డు', '|'), ('పు', '|'), ('దు', '|'), ('మా', 'U'), ('ర', 'U'), ('మ్ము', '|'), ('ను', '|'), ('జె', '|'), ('రు', '|'), ('గు', '|'), ('డు', '|'), ('ధూ', 'U'), ('ళి', '|'), ('యు', '|'), ('మే', 'U'), ('ష', '|'), ('ర', '|'), ('జ', '|'), ('ము', '|'), ('గూ', 'U'), ('డ', '|'), ('దె', '|'), ('పు', '|'), ('డు', '|'), ('మై', 'U'), ('బ', '|'), ('డ', '|'), ('నె', '|'), ('ఱి', '|'), ('గి', '|'), ('తి', '|'), ('రు', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('బ', '|'), ('డ', '|'), ('తు', '|'), ('ల', '|'), ('మ', 'U'), ('ర్యా', 'U'), ('ద', '|'), ('లె', '|'), ('ఱి', '|'), ('గి', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('కు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>దీపములనీడ మానవ
 రూపంబులనీడ శనితరులనీడను ఖ
@@ -3678,32 +3384,29 @@
 నేపట్టున నిలువఁగూడ దెపుడుఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('డ', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('నీ', 'U'), ('డ', '|'), ('శ', '|'), ('ని', '|'), ('త', '|'), ('రు', '|'), ('ల', '|'), ('నీ', 'U'), ('డ', '|'), ('ను', '|'), ('ఖ', 'U'), ('ట్వా', 'U'), ('పా', 'U'), ('ది', '|'), ('త', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('డ', '|'), ('నే', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('గూ', 'U'), ('డ', '|'), ('దె', '|'), ('పు', '|'), ('డు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>కొనగోళ్ళ వ్రేలువెండ్రుక
 లను జాఱెడునీళ్ళు, కుండలన్‌ ముంతల వా
@@ -3711,32 +3414,29 @@
 జన దండ్రు దరిద్ర మొందు జగతిఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('న', '|'), ('గో', 'U'), ('ళ్ళ', 'U'), ('వ్రే', 'U'), ('లు', '|'), ('వెం', 'U'), ('డ్రు', '|'), ('క', '|'), ('ల', '|'), ('ను', '|'), ('జా', 'U'), ('ఱె', '|'), ('డు', '|'), ('నీ', 'U'), ('ళ్ళు', '|'), ('కుం', 'U'), ('డ', '|'), ('లన్', 'U'), ('ముం', 'U'), ('త', '|'), ('ల', '|'), ('వా', 'U'), ('డి', '|'), ('న', '|'), ('వె', 'U'), ('న్క', '|'), ('మి', '|'), ('గు', '|'), ('లు', '|'), ('నీ', 'U'), ('ళ్ళు', '|'), ('ను', '|'), ('జ', '|'), ('న', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('మొం', 'U'), ('దు', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>ధర బక్కికులుఁడు వేంకట
 నరసింహకవీంద్రుఁ డిట్టి నడతలు ధరపైఁ
@@ -3744,17 +3444,17 @@
 జిరతర సత్కీర్తి వెలయఁ జెప్పెఁ గుమారీ!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaarii</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
-        <is>
-          <t>kumaarii</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
         <is>
           <t>[('ధ', '|'), ('ర', '|'), ('బ', 'U'), ('క్కి', '|'), ('కు', '|'), ('లు', '|'), ('డు', '|'), ('వేం', 'U'), ('క', '|'), ('ట', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('క', '|'), ('వీం', 'U'), ('ద్రు', '|'), ('డి', 'U'), ('ట్టి', '|'), ('న', '|'), ('డ', '|'), ('త', '|'), ('లు', '|'), ('ధ', '|'), ('ర', '|'), ('పై', 'U'), ('దె', '|'), ('ఱ', '|'), ('వ', '|'), ('ల', '|'), ('తె', '|'), ('రు', '|'), ('వు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('ను', '|'), ('జి', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('స', 'U'), ('త్కీ', 'U'), ('ర్తి', '|'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('జె', 'U'), ('ప్పె', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U')]</t>
         </is>
